--- a/browser-server/mysql和ES数据说明.xlsx
+++ b/browser-server/mysql和ES数据说明.xlsx
@@ -7,32 +7,38 @@
     <workbookView windowWidth="30240" windowHeight="13040" tabRatio="893"/>
   </bookViews>
   <sheets>
-    <sheet name="tx_bak｜es-transaction" sheetId="1" r:id="rId1"/>
-    <sheet name="es-block" sheetId="2" r:id="rId2"/>
-    <sheet name="address" sheetId="3" r:id="rId3"/>
-    <sheet name="node" sheetId="27" r:id="rId4"/>
-    <sheet name="block_node" sheetId="4" r:id="rId5"/>
-    <sheet name="delegation" sheetId="7" r:id="rId6"/>
-    <sheet name="n_opt_bak|es-node-opt" sheetId="12" r:id="rId7"/>
-    <sheet name="proposal" sheetId="14" r:id="rId8"/>
-    <sheet name="slash" sheetId="15" r:id="rId9"/>
-    <sheet name="token" sheetId="17" r:id="rId10"/>
-    <sheet name="token_1155_holder" sheetId="19" r:id="rId11"/>
-    <sheet name="token_1155_inventory" sheetId="18" r:id="rId12"/>
-    <sheet name="token_holder" sheetId="20" r:id="rId13"/>
-    <sheet name="token_inventory" sheetId="21" r:id="rId14"/>
-    <sheet name="tx_delegation_reward_bak" sheetId="22" r:id="rId15"/>
-    <sheet name="tx_erc_1155_bak" sheetId="23" r:id="rId16"/>
-    <sheet name="tx_erc_20_bak" sheetId="24" r:id="rId17"/>
-    <sheet name="tx_erc_721_bak" sheetId="25" r:id="rId18"/>
-    <sheet name="vote" sheetId="26" r:id="rId19"/>
+    <sheet name="tx_bak" sheetId="30" r:id="rId1"/>
+    <sheet name="es-transaction" sheetId="1" r:id="rId2"/>
+    <sheet name="es-erc20_tx" sheetId="32" r:id="rId3"/>
+    <sheet name="es-erc721_tx" sheetId="33" r:id="rId4"/>
+    <sheet name="es-block" sheetId="2" r:id="rId5"/>
+    <sheet name="address" sheetId="3" r:id="rId6"/>
+    <sheet name="node" sheetId="27" r:id="rId7"/>
+    <sheet name="block_node" sheetId="4" r:id="rId8"/>
+    <sheet name="delegation" sheetId="7" r:id="rId9"/>
+    <sheet name="es-delegation" sheetId="29" r:id="rId10"/>
+    <sheet name="n_opt_bak" sheetId="12" r:id="rId11"/>
+    <sheet name="es-nodeopt" sheetId="28" r:id="rId12"/>
+    <sheet name="proposal" sheetId="14" r:id="rId13"/>
+    <sheet name="slash" sheetId="15" r:id="rId14"/>
+    <sheet name="token" sheetId="17" r:id="rId15"/>
+    <sheet name="token_1155_holder" sheetId="19" r:id="rId16"/>
+    <sheet name="token_1155_inventory" sheetId="18" r:id="rId17"/>
+    <sheet name="token_holder" sheetId="20" r:id="rId18"/>
+    <sheet name="token_inventory" sheetId="21" r:id="rId19"/>
+    <sheet name="tx_delegation_reward_bak" sheetId="22" r:id="rId20"/>
+    <sheet name="es_delegation_reward" sheetId="34" r:id="rId21"/>
+    <sheet name="tx_erc_1155_bak" sheetId="23" r:id="rId22"/>
+    <sheet name="tx_erc_20_bak" sheetId="24" r:id="rId23"/>
+    <sheet name="tx_erc_721_bak" sheetId="25" r:id="rId24"/>
+    <sheet name="vote" sheetId="26" r:id="rId25"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="533">
   <si>
     <t>列名</t>
   </si>
@@ -271,6 +277,58 @@
     <t>合约地址</t>
   </si>
   <si>
+    <t>bn</t>
+  </si>
+  <si>
+    <t>bTime</t>
+  </si>
+  <si>
+    <t>txFee</t>
+  </si>
+  <si>
+    <t>fromType</t>
+  </si>
+  <si>
+    <t>from地址类型</t>
+  </si>
+  <si>
+    <t>根据from字段判断
+        ACCOUNT(1, "账户"),
+        INNER_CONTRACT(2, "内置合约"),
+        EVM_CONTRACT(3, "EVM合约"),
+        WASM_CONTRACT(4, "WASM合约"),
+        ERC20_CONTRACT(5, "ERC20-EVM合约"),
+        ERC721_CONTRACT(6, "ERC721-EVM合约"),
+        ERC1155_CONTRACT(7, "ERC1155-EVM合约");</t>
+  </si>
+  <si>
+    <t>toType</t>
+  </si>
+  <si>
+    <t>contract</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>合约名称</t>
+  </si>
+  <si>
+    <t>根据合约地址查询节点获得</t>
+  </si>
+  <si>
+    <t>symbol</t>
+  </si>
+  <si>
+    <t>合约symbol</t>
+  </si>
+  <si>
+    <t>tokenId</t>
+  </si>
+  <si>
+    <t>合约tokenId</t>
+  </si>
+  <si>
     <t>字段</t>
   </si>
   <si>
@@ -374,6 +432,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color theme="1"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
       <t>累加当前交易的能量限制到当前区块的</t>
     </r>
     <r>
@@ -395,6 +459,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color theme="1"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
       <t>累加当前交易的手续费到当前区块的</t>
     </r>
     <r>
@@ -451,6 +521,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">new </t>
     </r>
     <r>
@@ -543,9 +619,6 @@
     <t>contract_name</t>
   </si>
   <si>
-    <t>合约名称</t>
-  </si>
-  <si>
     <t>内置合约地址描述枚举中解析出来的</t>
   </si>
   <si>
@@ -965,6 +1038,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>node</t>
     </r>
     <r>
@@ -1143,6 +1223,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t>RoundCalculation.</t>
     </r>
     <r>
@@ -1327,9 +1413,6 @@
     <t>参数模块(参数提案专有属性)</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>参数名称(参数提案专有属性)</t>
   </si>
   <si>
@@ -1444,9 +1527,6 @@
     <t>调用合约接口获取</t>
   </si>
   <si>
-    <t>symbol</t>
-  </si>
-  <si>
     <t>合约符号</t>
   </si>
   <si>
@@ -1654,9 +1734,6 @@
     <t>CLAIM_REWARDS，领取奖励的交易时创建</t>
   </si>
   <si>
-    <t>bn</t>
-  </si>
-  <si>
     <t>领取奖励的区块高度</t>
   </si>
   <si>
@@ -1670,12 +1747,6 @@
   </si>
   <si>
     <t>序号ID</t>
-  </si>
-  <si>
-    <t>contract</t>
-  </si>
-  <si>
-    <t>tokenId</t>
   </si>
   <si>
     <t>根据合约地址查询合约得到的</t>
@@ -1764,10 +1835,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -1810,22 +1881,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -1833,8 +1888,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1849,14 +1920,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1880,23 +1958,31 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1910,14 +1996,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -1925,18 +2003,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1997,7 +2068,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2015,13 +2092,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2039,19 +2206,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2063,49 +2224,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2117,61 +2236,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2190,39 +2261,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2268,6 +2306,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2287,94 +2358,94 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2383,46 +2454,46 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2779,7 +2850,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="2"/>
@@ -3136,6 +3207,1074 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="13.3076923076923" customWidth="1"/>
+    <col min="2" max="2" width="27.6153846153846" customWidth="1"/>
+    <col min="3" max="3" width="50.8461538461538" customWidth="1"/>
+    <col min="4" max="4" width="28.8461538461538" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2"/>
+      <c r="B3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C3" t="s">
+        <v>315</v>
+      </c>
+      <c r="D3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2"/>
+      <c r="B4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2"/>
+      <c r="B5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C5" t="s">
+        <v>316</v>
+      </c>
+      <c r="D5" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2"/>
+      <c r="B6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C6" t="s">
+        <v>317</v>
+      </c>
+      <c r="D6" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2"/>
+      <c r="B7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C7" t="s">
+        <v>318</v>
+      </c>
+      <c r="D7" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="8" ht="51" spans="1:4">
+      <c r="A8" s="2"/>
+      <c r="B8" t="s">
+        <v>319</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D8" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2"/>
+      <c r="B9" t="s">
+        <v>321</v>
+      </c>
+      <c r="C9" t="s">
+        <v>322</v>
+      </c>
+      <c r="D9" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2"/>
+      <c r="B10" t="s">
+        <v>324</v>
+      </c>
+      <c r="C10" t="s">
+        <v>325</v>
+      </c>
+      <c r="D10" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2"/>
+      <c r="B11" t="s">
+        <v>175</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2"/>
+      <c r="B12" t="s">
+        <v>176</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B16" t="s">
+        <v>328</v>
+      </c>
+      <c r="C16" t="s">
+        <v>313</v>
+      </c>
+      <c r="D16" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="2"/>
+      <c r="B17" t="s">
+        <v>196</v>
+      </c>
+      <c r="C17" t="s">
+        <v>197</v>
+      </c>
+      <c r="D17" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="2"/>
+      <c r="B18" t="s">
+        <v>330</v>
+      </c>
+      <c r="C18" t="s">
+        <v>315</v>
+      </c>
+      <c r="D18" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="2"/>
+      <c r="B19" t="s">
+        <v>332</v>
+      </c>
+      <c r="C19" t="s">
+        <v>333</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
+        <v>334</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="A16:A19"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="10.0769230769231" customWidth="1"/>
+    <col min="2" max="2" width="65.8653846153846" customWidth="1"/>
+    <col min="3" max="3" width="44.3846153846154" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>337</v>
+      </c>
+      <c r="C4" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>339</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>341</v>
+      </c>
+      <c r="B6" t="s">
+        <v>342</v>
+      </c>
+      <c r="C6" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>343</v>
+      </c>
+      <c r="C7" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>345</v>
+      </c>
+      <c r="B8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="10.0769230769231" customWidth="1"/>
+    <col min="2" max="2" width="65.8653846153846" customWidth="1"/>
+    <col min="3" max="3" width="44.3846153846154" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" spans="1:2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>337</v>
+      </c>
+      <c r="C4" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>339</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>341</v>
+      </c>
+      <c r="B6" t="s">
+        <v>342</v>
+      </c>
+      <c r="C6" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>343</v>
+      </c>
+      <c r="C7" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" spans="1:2">
+      <c r="A8" t="s">
+        <v>345</v>
+      </c>
+      <c r="B8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="1:2">
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="1:2">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="18.1538461538462" customWidth="1"/>
+    <col min="2" max="2" width="56.5384615384615" customWidth="1"/>
+    <col min="3" max="3" width="57.3653846153846" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B4" t="s">
+        <v>351</v>
+      </c>
+      <c r="C4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C5" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>353</v>
+      </c>
+      <c r="B6" t="s">
+        <v>354</v>
+      </c>
+      <c r="C6" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>356</v>
+      </c>
+      <c r="B7" t="s">
+        <v>357</v>
+      </c>
+      <c r="C7" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>358</v>
+      </c>
+      <c r="B8" t="s">
+        <v>359</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>361</v>
+      </c>
+      <c r="B9" t="s">
+        <v>362</v>
+      </c>
+      <c r="C9" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>363</v>
+      </c>
+      <c r="B10" t="s">
+        <v>364</v>
+      </c>
+      <c r="C10" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>365</v>
+      </c>
+      <c r="B11" t="s">
+        <v>366</v>
+      </c>
+      <c r="C11" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>367</v>
+      </c>
+      <c r="B12" t="s">
+        <v>368</v>
+      </c>
+      <c r="C12" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>369</v>
+      </c>
+      <c r="B13" t="s">
+        <v>370</v>
+      </c>
+      <c r="C13" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>371</v>
+      </c>
+      <c r="B14" t="s">
+        <v>372</v>
+      </c>
+      <c r="C14" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>373</v>
+      </c>
+      <c r="C15" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>375</v>
+      </c>
+      <c r="B16" t="s">
+        <v>376</v>
+      </c>
+      <c r="C16" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>377</v>
+      </c>
+      <c r="B17" t="s">
+        <v>378</v>
+      </c>
+      <c r="C17" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>379</v>
+      </c>
+      <c r="B18" t="s">
+        <v>380</v>
+      </c>
+      <c r="C18" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>382</v>
+      </c>
+      <c r="B19" t="s">
+        <v>383</v>
+      </c>
+      <c r="C19" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>384</v>
+      </c>
+      <c r="B20" t="s">
+        <v>385</v>
+      </c>
+      <c r="C20" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>386</v>
+      </c>
+      <c r="B21" t="s">
+        <v>387</v>
+      </c>
+      <c r="C21" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>388</v>
+      </c>
+      <c r="B22" t="s">
+        <v>389</v>
+      </c>
+      <c r="C22" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>175</v>
+      </c>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>176</v>
+      </c>
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>390</v>
+      </c>
+      <c r="B25" t="s">
+        <v>391</v>
+      </c>
+      <c r="C25" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>392</v>
+      </c>
+      <c r="B26" t="s">
+        <v>393</v>
+      </c>
+      <c r="C26" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" t="s">
+        <v>394</v>
+      </c>
+      <c r="C27" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>395</v>
+      </c>
+      <c r="B28" t="s">
+        <v>396</v>
+      </c>
+      <c r="C28" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>397</v>
+      </c>
+      <c r="B29" t="s">
+        <v>398</v>
+      </c>
+      <c r="C29" t="s">
+        <v>352</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="31.1538461538462" customWidth="1"/>
+    <col min="2" max="2" width="66.9903846153846" customWidth="1"/>
+    <col min="3" max="3" width="51.9134615384615" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>400</v>
+      </c>
+      <c r="B3" t="s">
+        <v>401</v>
+      </c>
+      <c r="C3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B4" t="s">
+        <v>402</v>
+      </c>
+      <c r="C4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>339</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>343</v>
+      </c>
+      <c r="C6" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>403</v>
+      </c>
+      <c r="B7" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>215</v>
+      </c>
+      <c r="B8" t="s">
+        <v>405</v>
+      </c>
+      <c r="C8" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>406</v>
+      </c>
+      <c r="B9" t="s">
+        <v>407</v>
+      </c>
+      <c r="C9" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>408</v>
+      </c>
+      <c r="B10" t="s">
+        <v>409</v>
+      </c>
+      <c r="C10" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>410</v>
+      </c>
+      <c r="B11" t="s">
+        <v>411</v>
+      </c>
+      <c r="C11" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>412</v>
+      </c>
+      <c r="B12" t="s">
+        <v>413</v>
+      </c>
+      <c r="C12" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>414</v>
+      </c>
+      <c r="B13" t="s">
+        <v>415</v>
+      </c>
+      <c r="C13" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>416</v>
+      </c>
+      <c r="B14" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>417</v>
+      </c>
+      <c r="B15" t="s">
+        <v>418</v>
+      </c>
+      <c r="C15" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>419</v>
+      </c>
+      <c r="B16" t="s">
+        <v>420</v>
+      </c>
+      <c r="C16" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>293</v>
+      </c>
+      <c r="B17" t="s">
+        <v>421</v>
+      </c>
+      <c r="C17" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>295</v>
+      </c>
+      <c r="B18" t="s">
+        <v>296</v>
+      </c>
+      <c r="C18" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>422</v>
+      </c>
+      <c r="B19" t="s">
+        <v>423</v>
+      </c>
+      <c r="C19" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>424</v>
+      </c>
+      <c r="B20" t="s">
+        <v>425</v>
+      </c>
+      <c r="C20" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>426</v>
+      </c>
+      <c r="B21" t="s">
+        <v>427</v>
+      </c>
+      <c r="C21" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>175</v>
+      </c>
+      <c r="B22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>176</v>
+      </c>
+      <c r="B23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C20"/>
@@ -3164,13 +4303,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="B2" t="s">
         <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3178,136 +4317,136 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>416</v>
+        <v>429</v>
       </c>
       <c r="C3" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>380</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="C4" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>419</v>
+        <v>84</v>
       </c>
       <c r="B5" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="C5" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
       <c r="B6" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="C6" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
       <c r="B7" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
       <c r="C7" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="B8" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="C8" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B9" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
       <c r="C9" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="B10" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="C10" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="B11" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
       <c r="C11" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="B12" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="C12" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="B13" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="C13" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="B14" t="s">
+        <v>451</v>
+      </c>
+      <c r="C14" t="s">
         <v>439</v>
-      </c>
-      <c r="C14" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="B15" t="s">
         <v>47</v>
@@ -3318,7 +4457,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="B16" t="s">
         <v>50</v>
@@ -3329,10 +4468,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="B17" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -3340,35 +4479,35 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
       <c r="B18" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="C18" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
       <c r="B19" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="C19" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="B20" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
       <c r="C20" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
     </row>
   </sheetData>
@@ -3377,7 +4516,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C9"/>
@@ -3409,67 +4548,67 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
       <c r="B3" t="s">
         <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
       <c r="B4" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="C4" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="B5" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="C5" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="B6" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="C6" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="B7" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
       <c r="C7" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="B8" t="s">
         <v>47</v>
@@ -3477,7 +4616,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="B9" t="s">
         <v>50</v>
@@ -3489,13 +4628,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C13"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="2"/>
@@ -3521,133 +4660,133 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
       <c r="B3" t="s">
         <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
       <c r="B4" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
       <c r="C4" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="B5" t="s">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="C5" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
       <c r="B6" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="C6" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>380</v>
+        <v>81</v>
       </c>
       <c r="B7" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="C7" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>368</v>
+        <v>382</v>
       </c>
       <c r="B8" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="C8" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
       <c r="B9" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="C9" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="B10" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="C10" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="B11" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="C11" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="B12" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="C12" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
       <c r="B13" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
       <c r="C13" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="B14" t="s">
         <v>47</v>
@@ -3655,7 +4794,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="B15" t="s">
         <v>50</v>
@@ -3663,7 +4802,7 @@
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
     </row>
   </sheetData>
@@ -3672,7 +4811,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C7"/>
@@ -3701,40 +4840,40 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
       <c r="B2" t="s">
         <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="B3" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="C3" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="B4" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
       <c r="C4" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="B5" t="s">
         <v>47</v>
@@ -3742,7 +4881,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="B6" t="s">
         <v>50</v>
@@ -3750,13 +4889,13 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="B7" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="C7" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
     </row>
   </sheetData>
@@ -3765,7 +4904,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C16"/>
@@ -3797,152 +4936,152 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
       <c r="B3" t="s">
         <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
       <c r="B4" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
       <c r="C4" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
       <c r="B5" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
       <c r="C5" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>380</v>
+        <v>81</v>
       </c>
       <c r="B6" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="C6" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>368</v>
+        <v>382</v>
       </c>
       <c r="B7" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="C7" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
       <c r="B8" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="C8" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="B9" t="s">
         <v>47</v>
       </c>
       <c r="C9" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="B10" t="s">
         <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="B11" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="C11" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="B12" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="C12" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="B13" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="B14" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="B15" t="s">
-        <v>339</v>
+        <v>353</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
       <c r="B16" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
       <c r="C16" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
     </row>
   </sheetData>
@@ -3951,19 +5090,382 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="17.3076923076923" customWidth="1"/>
+    <col min="2" max="2" width="24.8461538461538" customWidth="1"/>
+    <col min="3" max="3" width="93.7403846153846" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" ht="135" spans="1:3">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" ht="118" spans="1:3">
+      <c r="A30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" ht="101" spans="1:3">
+      <c r="A31" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="12.1538461538462" customWidth="1"/>
     <col min="2" max="2" width="10.3076923076923" customWidth="1"/>
+    <col min="3" max="3" width="47.5384615384615" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -3993,29 +5495,29 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>489</v>
+        <v>73</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="C4" t="s">
-        <v>490</v>
+        <v>501</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="B5" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="C5" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4023,7 +5525,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
@@ -4047,15 +5549,15 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>491</v>
+        <v>502</v>
       </c>
       <c r="C9" t="s">
-        <v>492</v>
+        <v>503</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
   </sheetData>
@@ -4064,7 +5566,121 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="12.1538461538462" customWidth="1"/>
+    <col min="2" max="2" width="10.3076923076923" customWidth="1"/>
+    <col min="3" max="3" width="47.5384615384615" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>328</v>
+      </c>
+      <c r="B5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>343</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>502</v>
+      </c>
+      <c r="C9" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>504</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C15"/>
@@ -4096,7 +5712,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4104,7 +5720,7 @@
         <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -4112,7 +5728,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>495</v>
+        <v>80</v>
       </c>
       <c r="B4" t="s">
         <v>72</v>
@@ -4123,13 +5739,13 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
       <c r="B5" t="s">
-        <v>496</v>
+        <v>86</v>
       </c>
       <c r="C5" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4137,10 +5753,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="C6" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4151,18 +5767,18 @@
         <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="B8" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="C8" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4173,7 +5789,7 @@
         <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4181,10 +5797,10 @@
         <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="C10" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4192,29 +5808,29 @@
         <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="C11" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>489</v>
+        <v>73</v>
       </c>
       <c r="B12" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="C12" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="B13" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="C13" t="s">
         <v>15</v>
@@ -4222,21 +5838,21 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="B14" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="C14" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="B15" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
     </row>
   </sheetData>
@@ -4245,7 +5861,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C17"/>
@@ -4276,7 +5892,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4284,7 +5900,7 @@
         <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -4292,10 +5908,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>380</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="C4" t="s">
         <v>72</v>
@@ -4303,35 +5919,35 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>419</v>
+        <v>84</v>
       </c>
       <c r="B5" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="C5" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
       <c r="B6" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="C6" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>495</v>
+        <v>80</v>
       </c>
       <c r="B7" t="s">
         <v>72</v>
       </c>
       <c r="C7" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4339,10 +5955,10 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="C8" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4353,18 +5969,18 @@
         <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="B10" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="C10" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4375,7 +5991,7 @@
         <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -4383,10 +5999,10 @@
         <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="C12" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4394,29 +6010,29 @@
         <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="C13" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>489</v>
+        <v>73</v>
       </c>
       <c r="B14" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="C14" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="B15" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="C15" t="s">
         <v>15</v>
@@ -4424,21 +6040,21 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="B16" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="C16" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="B17" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
     </row>
   </sheetData>
@@ -4447,7 +6063,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C18"/>
@@ -4479,7 +6095,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4487,7 +6103,7 @@
         <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -4495,10 +6111,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>380</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="C4" t="s">
         <v>72</v>
@@ -4506,46 +6122,46 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>419</v>
+        <v>84</v>
       </c>
       <c r="B5" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="C5" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
       <c r="B6" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="C6" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>495</v>
+        <v>80</v>
       </c>
       <c r="B7" t="s">
         <v>72</v>
       </c>
       <c r="C7" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
       <c r="B8" t="s">
-        <v>496</v>
+        <v>86</v>
       </c>
       <c r="C8" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4553,10 +6169,10 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="C9" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4567,18 +6183,18 @@
         <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="B11" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="C11" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -4589,7 +6205,7 @@
         <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4597,10 +6213,10 @@
         <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="C13" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -4608,29 +6224,29 @@
         <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="C14" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>489</v>
+        <v>73</v>
       </c>
       <c r="B15" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="C15" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="B16" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="C16" t="s">
         <v>15</v>
@@ -4638,21 +6254,21 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="B17" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="C17" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="B18" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
     </row>
   </sheetData>
@@ -4661,7 +6277,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C9"/>
@@ -4692,51 +6308,51 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
       <c r="C2" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="B3" t="s">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="C3" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="B4" t="s">
-        <v>519</v>
+        <v>528</v>
       </c>
       <c r="C4" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="B5" t="s">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="C5" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="B6" t="s">
-        <v>523</v>
+        <v>532</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -4744,10 +6360,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="B7" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
@@ -4755,7 +6371,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="B8" t="s">
         <v>47</v>
@@ -4763,7 +6379,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="B9" t="s">
         <v>50</v>
@@ -4775,7 +6391,469 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="17.3076923076923" customWidth="1"/>
+    <col min="2" max="2" width="24.8461538461538" customWidth="1"/>
+    <col min="3" max="3" width="93.7403846153846" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" ht="135" spans="1:3">
+      <c r="A13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" ht="135" spans="1:3">
+      <c r="A14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="17.3076923076923" customWidth="1"/>
+    <col min="2" max="2" width="24.8461538461538" customWidth="1"/>
+    <col min="3" max="3" width="93.7403846153846" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" ht="135" spans="1:3">
+      <c r="A13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" ht="135" spans="1:3">
+      <c r="A14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C25"/>
@@ -4793,7 +6871,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="4" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
@@ -4804,10 +6882,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>16</v>
@@ -4815,10 +6893,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>16</v>
@@ -4826,10 +6904,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>16</v>
@@ -4837,10 +6915,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>16</v>
@@ -4848,10 +6926,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>16</v>
@@ -4859,10 +6937,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>16</v>
@@ -4870,10 +6948,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>16</v>
@@ -4881,142 +6959,142 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="4" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="4" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="4" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="4" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="4" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="4" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="4" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="5" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="5" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="4" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" ht="68" spans="1:3">
       <c r="A20" s="6" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="4" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>16</v>
@@ -5024,7 +7102,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="4" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>47</v>
@@ -5035,7 +7113,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="4" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>50</v>
@@ -5046,10 +7124,10 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="4" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>16</v>
@@ -5060,10 +7138,10 @@
         <v>44</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -5072,7 +7150,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C28"/>
@@ -5101,13 +7179,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="B2" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="C2" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -5115,18 +7193,18 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="C3" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="B4" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5134,10 +7212,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="B5" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5145,133 +7223,133 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="B6" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="C6" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="B7" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="C7" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="B8" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="C8" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="B9" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="C9" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="B10" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="C10" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="B11" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="C11" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="B12" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="C12" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="B13" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="C13" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="B14" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="C14" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="B15" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="C15" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="B16" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="B17" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="B18" t="s">
         <v>47</v>
@@ -5282,7 +7360,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="B19" t="s">
         <v>50</v>
@@ -5293,77 +7371,77 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="B20" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="C20" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="B21" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="B22" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="B23" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="B24" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="B25" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="B26" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="B27" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="B28" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -5372,7 +7450,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C58"/>
@@ -5401,32 +7479,32 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="B2" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="C2" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="B3" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="C3" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="B4" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5434,10 +7512,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="B5" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5445,183 +7523,183 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="B6" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="B7" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="B8" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" ht="34" spans="1:2">
       <c r="A9" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="B10" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="B11" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="B12" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="B13" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="B14" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="B15" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="B16" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="B17" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="B18" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="B19" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="B20" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="B21" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="B22" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="B23" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="B24" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="B25" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="B27" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B28" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -5629,108 +7707,108 @@
         <v>19</v>
       </c>
       <c r="B29" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="B30" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="B31" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="B32" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="B33" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="B34" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="B35" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="B36" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="B37" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="B38" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="B39" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="B40" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="B41" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="B42" t="s">
         <v>47</v>
@@ -5738,7 +7816,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="B43" t="s">
         <v>50</v>
@@ -5746,122 +7824,122 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="B44" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="B45" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="B46" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="B47" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="B48" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="B49" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="B50" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="B51" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="B52" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="B53" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="B54" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="B55" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="B56" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="B57" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="B58" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -5870,7 +7948,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C7"/>
@@ -5909,40 +7987,40 @@
     </row>
     <row r="3" ht="17" spans="1:3">
       <c r="A3" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="B3" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="C3" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
     </row>
     <row r="4" ht="17" spans="1:3">
       <c r="A4" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="B4" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="C4" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="B5" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="C5" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="B6" t="s">
         <v>47</v>
@@ -5950,7 +8028,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="B7" t="s">
         <v>50</v>
@@ -5962,7 +8040,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D22"/>
@@ -5981,7 +8059,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -5995,118 +8073,118 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="B2" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="C2" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="D2" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2"/>
       <c r="B3" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="C3" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="D3" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2"/>
       <c r="B4" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="C4" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="D4" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2"/>
       <c r="B5" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="C5" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="D5" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2"/>
       <c r="B6" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="C6" t="s">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="D6" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2"/>
       <c r="B7" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="C7" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="D7" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="8" ht="68" spans="1:4">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="8" ht="51" spans="1:4">
       <c r="A8" s="2"/>
       <c r="B8" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="D8" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2"/>
       <c r="B9" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="C9" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="D9" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2"/>
       <c r="B10" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="C10" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="D10" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2"/>
       <c r="B11" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="C11" t="s">
         <v>47</v>
@@ -6115,7 +8193,7 @@
     <row r="12" spans="1:3">
       <c r="A12" s="2"/>
       <c r="B12" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="C12" t="s">
         <v>50</v>
@@ -6123,49 +8201,49 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B16" t="s">
+        <v>328</v>
+      </c>
+      <c r="C16" t="s">
         <v>313</v>
       </c>
-      <c r="B16" t="s">
-        <v>314</v>
-      </c>
-      <c r="C16" t="s">
-        <v>299</v>
-      </c>
       <c r="D16" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2"/>
       <c r="B17" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="C17" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="D17" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2"/>
       <c r="B18" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="C18" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="D18" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2"/>
       <c r="B19" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="C19" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -6173,7 +8251,7 @@
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -6184,728 +8262,4 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="2"/>
-  <cols>
-    <col min="1" max="1" width="10.0769230769231" customWidth="1"/>
-    <col min="2" max="2" width="65.8653846153846" customWidth="1"/>
-    <col min="3" max="3" width="44.3846153846154" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>182</v>
-      </c>
-      <c r="B3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C3" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" t="s">
-        <v>323</v>
-      </c>
-      <c r="C4" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>325</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>327</v>
-      </c>
-      <c r="B6" t="s">
-        <v>328</v>
-      </c>
-      <c r="C6" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>329</v>
-      </c>
-      <c r="C7" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>331</v>
-      </c>
-      <c r="B8" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="2"/>
-  <cols>
-    <col min="1" max="1" width="18.1538461538462" customWidth="1"/>
-    <col min="2" max="2" width="56.5384615384615" customWidth="1"/>
-    <col min="3" max="3" width="57.3653846153846" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>333</v>
-      </c>
-      <c r="C2" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" t="s">
-        <v>335</v>
-      </c>
-      <c r="C3" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B4" t="s">
-        <v>337</v>
-      </c>
-      <c r="C4" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>185</v>
-      </c>
-      <c r="C5" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>339</v>
-      </c>
-      <c r="B6" t="s">
-        <v>340</v>
-      </c>
-      <c r="C6" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>342</v>
-      </c>
-      <c r="B7" t="s">
-        <v>343</v>
-      </c>
-      <c r="C7" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>344</v>
-      </c>
-      <c r="B8" t="s">
-        <v>345</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>347</v>
-      </c>
-      <c r="B9" t="s">
-        <v>348</v>
-      </c>
-      <c r="C9" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>349</v>
-      </c>
-      <c r="B10" t="s">
-        <v>350</v>
-      </c>
-      <c r="C10" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>351</v>
-      </c>
-      <c r="B11" t="s">
-        <v>352</v>
-      </c>
-      <c r="C11" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>353</v>
-      </c>
-      <c r="B12" t="s">
-        <v>354</v>
-      </c>
-      <c r="C12" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>355</v>
-      </c>
-      <c r="B13" t="s">
-        <v>356</v>
-      </c>
-      <c r="C13" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>357</v>
-      </c>
-      <c r="B14" t="s">
-        <v>358</v>
-      </c>
-      <c r="C14" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" t="s">
-        <v>359</v>
-      </c>
-      <c r="C15" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>361</v>
-      </c>
-      <c r="B16" t="s">
-        <v>362</v>
-      </c>
-      <c r="C16" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>363</v>
-      </c>
-      <c r="B17" t="s">
-        <v>364</v>
-      </c>
-      <c r="C17" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>365</v>
-      </c>
-      <c r="B18" t="s">
-        <v>366</v>
-      </c>
-      <c r="C18" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>368</v>
-      </c>
-      <c r="B19" t="s">
-        <v>369</v>
-      </c>
-      <c r="C19" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>370</v>
-      </c>
-      <c r="B20" t="s">
-        <v>371</v>
-      </c>
-      <c r="C20" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>372</v>
-      </c>
-      <c r="B21" t="s">
-        <v>373</v>
-      </c>
-      <c r="C21" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>374</v>
-      </c>
-      <c r="B22" t="s">
-        <v>375</v>
-      </c>
-      <c r="C22" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>162</v>
-      </c>
-      <c r="B24" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>376</v>
-      </c>
-      <c r="B25" t="s">
-        <v>377</v>
-      </c>
-      <c r="C25" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>378</v>
-      </c>
-      <c r="B26" t="s">
-        <v>379</v>
-      </c>
-      <c r="C26" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>380</v>
-      </c>
-      <c r="B27" t="s">
-        <v>381</v>
-      </c>
-      <c r="C27" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>382</v>
-      </c>
-      <c r="B28" t="s">
-        <v>383</v>
-      </c>
-      <c r="C28" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>384</v>
-      </c>
-      <c r="B29" t="s">
-        <v>385</v>
-      </c>
-      <c r="C29" t="s">
-        <v>338</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="2"/>
-  <cols>
-    <col min="1" max="1" width="31.1538461538462" customWidth="1"/>
-    <col min="2" max="2" width="66.9903846153846" customWidth="1"/>
-    <col min="3" max="3" width="51.9134615384615" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>387</v>
-      </c>
-      <c r="B3" t="s">
-        <v>388</v>
-      </c>
-      <c r="C3" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B4" t="s">
-        <v>389</v>
-      </c>
-      <c r="C4" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>325</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>329</v>
-      </c>
-      <c r="C6" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>390</v>
-      </c>
-      <c r="B7" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>201</v>
-      </c>
-      <c r="B8" t="s">
-        <v>392</v>
-      </c>
-      <c r="C8" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>393</v>
-      </c>
-      <c r="B9" t="s">
-        <v>394</v>
-      </c>
-      <c r="C9" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>395</v>
-      </c>
-      <c r="B10" t="s">
-        <v>396</v>
-      </c>
-      <c r="C10" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>397</v>
-      </c>
-      <c r="B11" t="s">
-        <v>398</v>
-      </c>
-      <c r="C11" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>399</v>
-      </c>
-      <c r="B12" t="s">
-        <v>400</v>
-      </c>
-      <c r="C12" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>401</v>
-      </c>
-      <c r="B13" t="s">
-        <v>402</v>
-      </c>
-      <c r="C13" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>403</v>
-      </c>
-      <c r="B14" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>404</v>
-      </c>
-      <c r="B15" t="s">
-        <v>405</v>
-      </c>
-      <c r="C15" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>406</v>
-      </c>
-      <c r="B16" t="s">
-        <v>407</v>
-      </c>
-      <c r="C16" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>279</v>
-      </c>
-      <c r="B17" t="s">
-        <v>408</v>
-      </c>
-      <c r="C17" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>281</v>
-      </c>
-      <c r="B18" t="s">
-        <v>282</v>
-      </c>
-      <c r="C18" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>409</v>
-      </c>
-      <c r="B19" t="s">
-        <v>410</v>
-      </c>
-      <c r="C19" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>411</v>
-      </c>
-      <c r="B20" t="s">
-        <v>412</v>
-      </c>
-      <c r="C20" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>413</v>
-      </c>
-      <c r="B21" t="s">
-        <v>414</v>
-      </c>
-      <c r="C21" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>161</v>
-      </c>
-      <c r="B22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>162</v>
-      </c>
-      <c r="B23" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>